--- a/reports/Report_status_2022-12-13_2022-12-19_1671546653.xlsx
+++ b/reports/Report_status_2022-12-13_2022-12-19_1671546653.xlsx
@@ -9276,6 +9276,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -9286,8 +9295,8 @@
   </sheetPr>
   <dimension ref="A1:AA657"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9297,7 +9306,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="100.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="100.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.37"/>
@@ -11251,9 +11260,6 @@
       <c r="N26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O26" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>213</v>
       </c>
@@ -14644,9 +14650,6 @@
       <c r="N71" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O71" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P71" s="1" t="n">
         <v>0</v>
       </c>
@@ -15245,9 +15248,6 @@
       <c r="N79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O79" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P79" s="1" t="n">
         <v>0</v>
       </c>
@@ -16222,9 +16222,6 @@
       <c r="N92" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O92" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P92" s="1" t="n">
         <v>0</v>
       </c>
@@ -18940,9 +18937,6 @@
       <c r="N128" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O128" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P128" s="3" t="s">
         <v>468</v>
       </c>
@@ -19917,9 +19911,6 @@
       <c r="N141" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O141" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P141" s="1" t="n">
         <v>0</v>
       </c>
@@ -21042,9 +21033,6 @@
       <c r="N156" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O156" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P156" s="1" t="n">
         <v>0</v>
       </c>
@@ -22235,9 +22223,6 @@
       <c r="N172" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O172" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P172" s="1" t="n">
         <v>0</v>
       </c>
@@ -22457,9 +22442,6 @@
       <c r="N175" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O175" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P175" s="1" t="n">
         <v>0</v>
       </c>
@@ -22531,9 +22513,6 @@
       <c r="N176" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O176" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P176" s="1" t="n">
         <v>0</v>
       </c>
@@ -24636,9 +24615,6 @@
       <c r="N204" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O204" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P204" s="1" t="n">
         <v>0</v>
       </c>
@@ -25009,9 +24985,6 @@
       <c r="N209" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O209" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P209" s="3" t="s">
         <v>1108</v>
       </c>
@@ -25163,9 +25136,6 @@
       <c r="N211" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O211" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P211" s="3" t="s">
         <v>1118</v>
       </c>
@@ -25998,9 +25968,6 @@
       <c r="N222" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O222" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P222" s="1" t="n">
         <v>0</v>
       </c>
@@ -26673,9 +26640,6 @@
       <c r="N231" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O231" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P231" s="3" t="s">
         <v>711</v>
       </c>
@@ -27724,9 +27688,6 @@
       <c r="N245" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O245" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P245" s="1" t="n">
         <v>0</v>
       </c>
@@ -27872,9 +27833,6 @@
       <c r="N247" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O247" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P247" s="1" t="n">
         <v>0</v>
       </c>
@@ -29012,9 +28970,6 @@
       <c r="N262" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O262" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P262" s="1" t="n">
         <v>0</v>
       </c>
@@ -32020,9 +31975,6 @@
       <c r="N302" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O302" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P302" s="1" t="n">
         <v>0</v>
       </c>
@@ -33589,9 +33541,6 @@
       <c r="N323" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O323" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P323" s="1" t="n">
         <v>0</v>
       </c>
@@ -34338,9 +34287,6 @@
       <c r="N333" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O333" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P333" s="1" t="n">
         <v>0</v>
       </c>
@@ -36825,9 +36771,6 @@
       <c r="N366" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O366" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P366" s="3" t="s">
         <v>192</v>
       </c>
@@ -37201,9 +37144,6 @@
       <c r="N371" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O371" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P371" s="1" t="n">
         <v>0</v>
       </c>
@@ -42797,9 +42737,6 @@
       <c r="N445" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O445" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P445" s="1" t="n">
         <v>0</v>
       </c>
@@ -43626,9 +43563,6 @@
       <c r="N456" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O456" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P456" s="3" t="s">
         <v>2194</v>
       </c>
@@ -48718,9 +48652,6 @@
       <c r="N524" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O524" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P524" s="1" t="n">
         <v>0</v>
       </c>
@@ -49242,9 +49173,6 @@
       <c r="N531" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O531" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P531" s="1" t="n">
         <v>0</v>
       </c>
@@ -50527,9 +50455,6 @@
       <c r="N548" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O548" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P548" s="1" t="n">
         <v>0</v>
       </c>
@@ -51282,9 +51207,6 @@
       <c r="N558" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O558" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P558" s="1" t="n">
         <v>0</v>
       </c>
@@ -54746,9 +54668,6 @@
       <c r="N604" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O604" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P604" s="1" t="n">
         <v>0</v>
       </c>
@@ -55048,9 +54967,6 @@
       <c r="N608" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O608" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P608" s="1" t="n">
         <v>0</v>
       </c>
@@ -55196,9 +55112,6 @@
       <c r="N610" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O610" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P610" s="1" t="n">
         <v>0</v>
       </c>
@@ -55268,9 +55181,6 @@
         <v>856</v>
       </c>
       <c r="N611" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O611" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P611" s="1" t="n">

--- a/reports/Report_status_2022-12-13_2022-12-19_1671546653.xlsx
+++ b/reports/Report_status_2022-12-13_2022-12-19_1671546653.xlsx
@@ -9295,8 +9295,8 @@
   </sheetPr>
   <dimension ref="A1:AA657"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O:O"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
